--- a/주특기 숙련주차 과제1/주특기 숙련 주차 과제1 API 명세서.xlsx
+++ b/주특기 숙련주차 과제1/주특기 숙련 주차 과제1 API 명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="12060" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,60 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Get</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <x:si>
     <x:t>response</x:t>
   </x:si>
   <x:si>
-    <x:t>{
-"title": 제목
-"username": 작성자명
-"content": 작성내용
-"createdAt": 작성날짜
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>request</x:t>
-  </x:si>
-  <x:si>
-    <x:t>url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
     <x:t>선택한 글 조회</x:t>
   </x:si>
   <x:si>
-    <x:t>/api/post/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주특기 숙련주차 과제1 API 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-토큰검사
-username일치 여부
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>username:  최소 4자 이상, 10자 이하이며 알파벳 소문자(a~z), 숫자(0~9)
-password:  최소 8자 이상, 15자 이하이며 알파벳 대소문자(a~z, A~Z), 숫자(0~9)</x:t>
-  </x:si>
-  <x:si>
     <x:t>/api/posts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택한 글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택한 글 삭제</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -84,31 +48,19 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>Post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내림차순 정렬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Put</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/auth/login</x:t>
+    <x:t>username:  최소 4자 이상, 10자 이하이며 알파벳 소문자(a~z), 숫자(0~9)
+password:  최소 8자 이상, 15자 이하이며 알파벳 대소문자(a~z, A~Z), 숫자(0~9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/auth/signup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"title": 제목
+"username": 작성자명
+"content": 작성내용
+"createdAt": 작성날짜
+}</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -119,10 +71,49 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>선택한 글 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택한 글 삭제</x:t>
+    <x:t>글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>request</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내림차순 정렬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/post/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/auth/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"msg": "로그인 성공"
+"statusCode": 200
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"msg": "회원가입 성공"
+"statusCode": 200
+}</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -132,9 +123,6 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>/api/auth/signup</x:t>
-  </x:si>
-  <x:si>
     <x:t>{
 "username": 아이디
 "password": 비밀번호
@@ -142,21 +130,36 @@
   </x:si>
   <x:si>
     <x:t>{
-"msg": "회원가입 성공"
-"statusCode": 200
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"msg": "로그인 성공"
-"statusCode": 200
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
 "msg": "삭제 완료"
 "statusCode": 200
 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주특기 숙련주차 과제1 API 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+토큰검사
+username일치 여부
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Put</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>createdAt을 어떻게 유지해야하나??</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -194,48 +197,17 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="18"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="18"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="18"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -292,26 +264,13 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -335,6 +294,19 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -345,7 +317,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -428,7 +399,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -463,7 +433,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -508,7 +477,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -552,7 +520,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -637,7 +604,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -658,7 +624,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -689,7 +654,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1057,7 +1021,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:G11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="G10" activeCellId="0" sqref="G10:G10"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1071,166 +1035,168 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:7" ht="26.35000000000000142109">
-      <x:c r="B2" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C2" s="1"/>
-      <x:c r="D2" s="1"/>
-      <x:c r="E2" s="1"/>
-      <x:c r="F2" s="1"/>
-      <x:c r="G2" s="1"/>
+      <x:c r="B2" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C2" s="5"/>
+      <x:c r="D2" s="5"/>
+      <x:c r="E2" s="5"/>
+      <x:c r="F2" s="5"/>
+      <x:c r="G2" s="5"/>
     </x:row>
     <x:row r="4" spans="2:7">
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G4" s="2" t="s">
-        <x:v>23</x:v>
+      <x:c r="G4" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:7" ht="65.5">
-      <x:c r="B5" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="5" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F5" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G5" s="5" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E5" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F5" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G5" s="4" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:7" ht="65.5">
-      <x:c r="B6" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E6" s="5" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F6" s="5" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G6" s="4"/>
+      <x:c r="B6" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E6" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F6" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G6" s="3"/>
     </x:row>
     <x:row r="7" spans="2:7" ht="114.59999999999999431566">
-      <x:c r="B7" s="3" t="s">
+      <x:c r="B7" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E7" s="3"/>
+      <x:c r="F7" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C7" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E7" s="4"/>
-      <x:c r="F7" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G7" s="4" t="s">
+      <x:c r="G7" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:7" ht="98.25">
-      <x:c r="B8" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C8" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E8" s="5" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F8" s="5" t="s">
+      <x:c r="B8" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G8" s="4"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E8" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F8" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
     </x:row>
     <x:row r="9" spans="2:7" ht="114.59999999999999431566">
-      <x:c r="B9" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C9" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s">
+      <x:c r="B9" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E9" s="4"/>
-      <x:c r="F9" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G9" s="4"/>
+      <x:c r="C9" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E9" s="3"/>
+      <x:c r="F9" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
     </x:row>
     <x:row r="10" spans="2:7" ht="98.25">
-      <x:c r="B10" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C10" s="4" t="s">
+      <x:c r="B10" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E10" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F10" s="4" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D10" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G10" s="4"/>
+      <x:c r="G10" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="2:7" ht="65.5">
-      <x:c r="B11" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C11" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s">
+      <x:c r="B11" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E11" s="5" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F11" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G11" s="4"/>
+      <x:c r="E11" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F11" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G11" s="3"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
     <x:mergeCell ref="B2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>